--- a/assets/dataSet/Medicines Dataset2.xlsx
+++ b/assets/dataSet/Medicines Dataset2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gessa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gessa\Documents\GitHub\EzyDose\assets\dataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F61322-56DF-4F2F-97B2-ECD2D8411856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDDBCB5-28B8-4B83-8DDB-60CCDD70D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC6DD8EC-DD4E-4C5C-9DA9-5861343B2A50}"/>
   </bookViews>
@@ -926,61 +926,61 @@
     <t xml:space="preserve">C07AA05, S01BA04, N02BA01, C01AA05, D07AA01, A02BC01, A10BA02, A02BC03, C09CA04, A02BC02, C09CA08, </t>
   </si>
   <si>
+    <t>A06AB02, A11CC05, A10BA02, C09CA04, A10AE04, A10AD06, A10BX12, C09CA08, M01AE02, M01AE01, N02BA01, C01AA05, C07AA05</t>
+  </si>
+  <si>
+    <t>J01FA09, J01FA10</t>
+  </si>
+  <si>
+    <t>A06AB02, C10AA05, A10AE04, A10AD06, N05AX12, N02BE51</t>
+  </si>
+  <si>
+    <t>J01FA09, N02BA01, C01AA05, A06AB02, A11CC05, A10BA02, C09CA04, A10AE04, A10AD06, A10BX12, C09CA08, M01AE02, M01AE01, C07AA05, N05AX12</t>
+  </si>
+  <si>
+    <t>C10AA05, M01AE02, J01FA09, H03AA01, B03AD03</t>
+  </si>
+  <si>
+    <t>A06AB02, A10BA02, A02BC03, A10AE04, A10AD06, A10BX12, N05AX12, S01BA04, H02AB06, J01FA10</t>
+  </si>
+  <si>
+    <t>A02BC01, J01CR02</t>
+  </si>
+  <si>
+    <t>J01FA09, N02BA01</t>
+  </si>
+  <si>
+    <t>A02BC01, A10BA02, B03AD03, A02BC03, A02BC02, A10AE04, A10AD06, A10BX12, C01AA05</t>
+  </si>
+  <si>
+    <t>N02BA01, C01AA05, N02BE01, N02BE51</t>
+  </si>
+  <si>
+    <t>D07AA01, P01BA02, S01BA04, H02AB06, J01FA09, J01FA10</t>
+  </si>
+  <si>
+    <t>M01AE02, H03AA01, C10AA05, B03AD03</t>
+  </si>
+  <si>
+    <t>A02BC03, A02BC02, A02BC01, H03AA01</t>
+  </si>
+  <si>
+    <t>D07AA01, S01BA04, H02AB06, C01AA05</t>
+  </si>
+  <si>
+    <t>ml Solution</t>
+  </si>
+  <si>
+    <t>doses Inhalation powder</t>
+  </si>
+  <si>
+    <t>g Gel</t>
+  </si>
+  <si>
+    <t>B03AD03, C10AA05, M01AE02, H03AA01</t>
+  </si>
+  <si>
     <t>A03FA01, N02BA01</t>
-  </si>
-  <si>
-    <t>A06AB02, A11CC05, A10BA02, C09CA04, A10AE04, A10AD06, A10BX12, C09CA08, M01AE02, M01AE01, N02BA01, C01AA05, C07AA05</t>
-  </si>
-  <si>
-    <t>J01FA09, J01FA10</t>
-  </si>
-  <si>
-    <t>A06AB02, C10AA05, A10AE04, A10AD06, N05AX12, N02BE51</t>
-  </si>
-  <si>
-    <t>J01FA09, N02BA01, C01AA05, A06AB02, A11CC05, A10BA02, C09CA04, A10AE04, A10AD06, A10BX12, C09CA08, M01AE02, M01AE01, C07AA05, N05AX12</t>
-  </si>
-  <si>
-    <t>C10AA05, M01AE02, J01FA09, H03AA01, B03AD03</t>
-  </si>
-  <si>
-    <t>B03AD03, C10AA05, M01AE02</t>
-  </si>
-  <si>
-    <t>A06AB02, A10BA02, A02BC03, A10AE04, A10AD06, A10BX12, N05AX12, S01BA04, H02AB06, J01FA10</t>
-  </si>
-  <si>
-    <t>A02BC01, J01CR02</t>
-  </si>
-  <si>
-    <t>J01FA09, N02BA01</t>
-  </si>
-  <si>
-    <t>A02BC01, A10BA02, B03AD03, A02BC03, A02BC02, A10AE04, A10AD06, A10BX12, C01AA05</t>
-  </si>
-  <si>
-    <t>N02BA01, C01AA05, N02BE01, N02BE51</t>
-  </si>
-  <si>
-    <t>D07AA01, P01BA02, S01BA04, H02AB06, J01FA09, J01FA10</t>
-  </si>
-  <si>
-    <t>M01AE02, H03AA01, C10AA05, B03AD03</t>
-  </si>
-  <si>
-    <t>A02BC03, A02BC02, A02BC01, H03AA01</t>
-  </si>
-  <si>
-    <t>D07AA01, S01BA04, H02AB06, C01AA05</t>
-  </si>
-  <si>
-    <t>ml Solution</t>
-  </si>
-  <si>
-    <t>doses Inhalation powder</t>
-  </si>
-  <si>
-    <t>g Gel</t>
   </si>
 </sst>
 </file>
@@ -1752,10 +1752,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2075,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1128E979-5177-487C-98D1-F8F619B168BD}">
   <dimension ref="A1:AC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="I39" zoomScale="69" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3154,7 +3150,7 @@
         <v>30</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>152</v>
@@ -3268,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="L42" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>141</v>
@@ -3292,7 +3288,7 @@
         <v>120</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>140</v>
@@ -3316,7 +3312,7 @@
         <v>120</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>137</v>
@@ -3420,7 +3416,7 @@
         <v>40</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>129</v>
@@ -3631,7 +3627,7 @@
         <v>108</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="K55" s="3">
         <v>20</v>
@@ -3661,7 +3657,7 @@
         <v>108</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="K56" s="3">
         <v>20</v>
@@ -3739,7 +3735,7 @@
         <v>40</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J59" s="16"/>
       <c r="K59" s="3">
@@ -3815,10 +3811,10 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="I62" s="18" t="s">
         <v>298</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="3">
@@ -3846,10 +3842,10 @@
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="I63" s="18" t="s">
         <v>298</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="3">
@@ -4029,7 +4025,7 @@
       <c r="G70" s="16"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="3">
@@ -4058,7 +4054,7 @@
       <c r="G71" s="16"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="3">
@@ -4087,7 +4083,7 @@
       <c r="G72" s="16"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="3">
@@ -4178,7 +4174,7 @@
       <c r="G75" s="16"/>
       <c r="H75" s="18"/>
       <c r="I75" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J75" s="16" t="s">
         <v>203</v>
@@ -4213,7 +4209,7 @@
       <c r="G76" s="16"/>
       <c r="H76" s="18"/>
       <c r="I76" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J76" s="16" t="s">
         <v>203</v>
@@ -4248,7 +4244,7 @@
       <c r="G77" s="16"/>
       <c r="H77" s="18"/>
       <c r="I77" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J77" s="16" t="s">
         <v>203</v>
@@ -4283,7 +4279,7 @@
       <c r="G78" s="16"/>
       <c r="H78" s="18"/>
       <c r="I78" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J78" s="16" t="s">
         <v>203</v>
@@ -4318,7 +4314,7 @@
       <c r="G79" s="16"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="J79" s="16" t="s">
         <v>199</v>
@@ -4348,10 +4344,10 @@
         <v>41</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K80" s="3">
         <v>14</v>
@@ -4378,10 +4374,10 @@
         <v>41</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K81" s="3">
         <v>7</v>
@@ -4408,10 +4404,10 @@
         <v>41</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K82" s="3">
         <v>14</v>
@@ -4438,10 +4434,10 @@
         <v>41</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K83" s="3">
         <v>14</v>
@@ -4476,7 +4472,7 @@
         <v>28</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K84" s="3">
         <v>28</v>
@@ -4512,7 +4508,7 @@
       </c>
       <c r="H85" s="20"/>
       <c r="I85" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J85" s="19" t="s">
         <v>180</v>
@@ -4551,7 +4547,7 @@
       </c>
       <c r="H86" s="20"/>
       <c r="I86" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J86" s="19" t="s">
         <v>180</v>
@@ -4590,7 +4586,7 @@
       </c>
       <c r="H87" s="21"/>
       <c r="I87" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J87" s="19" t="s">
         <v>180</v>
@@ -4629,7 +4625,7 @@
       </c>
       <c r="H88" s="21"/>
       <c r="I88" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J88" s="19" t="s">
         <v>180</v>
@@ -4760,7 +4756,7 @@
         <v>107</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K92" s="31">
         <v>20</v>
@@ -4790,7 +4786,7 @@
       <c r="G93" s="16"/>
       <c r="H93" s="17"/>
       <c r="I93" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="31">
@@ -4825,7 +4821,7 @@
       <c r="G94" s="16"/>
       <c r="H94" s="17"/>
       <c r="I94" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J94" s="16" t="s">
         <v>203</v>
@@ -4887,7 +4883,7 @@
       <c r="G96" s="16"/>
       <c r="H96" s="17"/>
       <c r="I96" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="31">
@@ -4916,7 +4912,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="17"/>
       <c r="I97" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J97" s="16"/>
       <c r="K97" s="31">

--- a/assets/dataSet/Medicines Dataset2.xlsx
+++ b/assets/dataSet/Medicines Dataset2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gessa\Documents\GitHub\EzyDose\assets\dataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDDBCB5-28B8-4B83-8DDB-60CCDD70D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFBAF7B-8906-451A-8120-CC7BDFB51CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC6DD8EC-DD4E-4C5C-9DA9-5861343B2A50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="316">
   <si>
     <t>https://www.nahdionline.com/media/catalog/product/v/e/veggie-vitamin-d3-50000-iu-20-capsules-1_1.jpg?optimize=high&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=454&amp;width=454&amp;canvas=454:454</t>
   </si>
@@ -981,6 +981,9 @@
   </si>
   <si>
     <t>A03FA01, N02BA01</t>
+  </si>
+  <si>
+    <t>H03AA01, C10AA05</t>
   </si>
 </sst>
 </file>
@@ -2071,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1128E979-5177-487C-98D1-F8F619B168BD}">
   <dimension ref="A1:AC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I39" zoomScale="69" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="D63" zoomScale="69" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4469,7 +4472,7 @@
       <c r="G84" s="16"/>
       <c r="H84" s="18"/>
       <c r="I84" s="16" t="s">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="J84" s="27" t="s">
         <v>303</v>

--- a/assets/dataSet/Medicines Dataset2.xlsx
+++ b/assets/dataSet/Medicines Dataset2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gessa\Documents\GitHub\EzyDose\assets\dataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFBAF7B-8906-451A-8120-CC7BDFB51CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F24F2CC-7447-4040-83C2-7FBC1B1559CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC6DD8EC-DD4E-4C5C-9DA9-5861343B2A50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="315">
   <si>
     <t>https://www.nahdionline.com/media/catalog/product/v/e/veggie-vitamin-d3-50000-iu-20-capsules-1_1.jpg?optimize=high&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=454&amp;width=454&amp;canvas=454:454</t>
   </si>
@@ -953,9 +953,6 @@
     <t>A02BC01, A10BA02, B03AD03, A02BC03, A02BC02, A10AE04, A10AD06, A10BX12, C01AA05</t>
   </si>
   <si>
-    <t>N02BA01, C01AA05, N02BE01, N02BE51</t>
-  </si>
-  <si>
     <t>D07AA01, P01BA02, S01BA04, H02AB06, J01FA09, J01FA10</t>
   </si>
   <si>
@@ -980,10 +977,10 @@
     <t>B03AD03, C10AA05, M01AE02, H03AA01</t>
   </si>
   <si>
-    <t>A03FA01, N02BA01</t>
-  </si>
-  <si>
     <t>H03AA01, C10AA05</t>
+  </si>
+  <si>
+    <t>N02BA01, C01AA05, N02BE01</t>
   </si>
 </sst>
 </file>
@@ -2074,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1128E979-5177-487C-98D1-F8F619B168BD}">
   <dimension ref="A1:AC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D63" zoomScale="69" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="I44" zoomScale="69" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2087,7 +2084,7 @@
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="52.109375" customWidth="1"/>
     <col min="9" max="9" width="149.6640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="132.88671875" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
@@ -3153,7 +3150,7 @@
         <v>30</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>152</v>
@@ -3267,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="L42" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>141</v>
@@ -3291,7 +3288,7 @@
         <v>120</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>140</v>
@@ -3315,7 +3312,7 @@
         <v>120</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>137</v>
@@ -3419,7 +3416,7 @@
         <v>40</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>129</v>
@@ -3630,7 +3627,7 @@
         <v>108</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>314</v>
+        <v>203</v>
       </c>
       <c r="K55" s="3">
         <v>20</v>
@@ -3660,7 +3657,7 @@
         <v>108</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>314</v>
+        <v>203</v>
       </c>
       <c r="K56" s="3">
         <v>20</v>
@@ -4317,7 +4314,7 @@
       <c r="G79" s="16"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J79" s="16" t="s">
         <v>199</v>
@@ -4472,7 +4469,7 @@
       <c r="G84" s="16"/>
       <c r="H84" s="18"/>
       <c r="I84" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J84" s="27" t="s">
         <v>303</v>
@@ -4759,7 +4756,7 @@
         <v>107</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K92" s="31">
         <v>20</v>
@@ -4789,7 +4786,7 @@
       <c r="G93" s="16"/>
       <c r="H93" s="17"/>
       <c r="I93" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="31">
@@ -4824,7 +4821,7 @@
       <c r="G94" s="16"/>
       <c r="H94" s="17"/>
       <c r="I94" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J94" s="16" t="s">
         <v>203</v>
@@ -4886,7 +4883,7 @@
       <c r="G96" s="16"/>
       <c r="H96" s="17"/>
       <c r="I96" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="31">
@@ -4915,7 +4912,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="17"/>
       <c r="I97" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J97" s="16"/>
       <c r="K97" s="31">
